--- a/data/mf_data.xlsx
+++ b/data/mf_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D46748-D755-1B48-A299-137D5173B314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22F15C-09A6-2D4C-8879-75C32D8C622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCellId="2" sqref="B1:B1048576 D1:D1048576 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -801,7 +801,7 @@
       <c r="B2" s="3">
         <v>1.0493376465425676E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>-8.5814456685180535E-3</v>
       </c>
       <c r="D2" s="3">
